--- a/INTLINE/data/924/SSE/SSE Main Board - Daily.xlsx
+++ b/INTLINE/data/924/SSE/SSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IZA3"/>
+  <dimension ref="A1:IZH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34159,15 +34159,50 @@
       </c>
       <c r="IYY1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="IYZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="IZA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="IZB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="IZC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="IZD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="IZE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="IZF1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IYZ1" s="1" t="inlineStr">
+      <c r="IZG1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IZA1" s="1" t="inlineStr">
+      <c r="IZH1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53528,17 +53563,38 @@
       <c r="IYX2" t="n">
         <v>290.36</v>
       </c>
-      <c r="IYY2" t="inlineStr">
+      <c r="IYY2" t="n">
+        <v>285.88</v>
+      </c>
+      <c r="IYZ2" t="n">
+        <v>288.97</v>
+      </c>
+      <c r="IZA2" t="n">
+        <v>278.24</v>
+      </c>
+      <c r="IZB2" t="n">
+        <v>275.66</v>
+      </c>
+      <c r="IZC2" t="n">
+        <v>283.27</v>
+      </c>
+      <c r="IZD2" t="n">
+        <v>285.96</v>
+      </c>
+      <c r="IZE2" t="n">
+        <v>291.32</v>
+      </c>
+      <c r="IZF2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="IYZ2" t="inlineStr">
+      <c r="IZG2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IZA2" t="inlineStr">
+      <c r="IZH2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -72935,17 +72991,38 @@
       <c r="IYX3" t="n">
         <v>3302.51</v>
       </c>
-      <c r="IYY3" t="inlineStr">
+      <c r="IYY3" t="n">
+        <v>3227.82</v>
+      </c>
+      <c r="IYZ3" t="n">
+        <v>3235.27</v>
+      </c>
+      <c r="IZA3" t="n">
+        <v>3069.17</v>
+      </c>
+      <c r="IZB3" t="n">
+        <v>3025.03</v>
+      </c>
+      <c r="IZC3" t="n">
+        <v>3100.34</v>
+      </c>
+      <c r="IZD3" t="n">
+        <v>3118.4</v>
+      </c>
+      <c r="IZE3" t="n">
+        <v>3193.33</v>
+      </c>
+      <c r="IZF3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="IYZ3" t="inlineStr">
+      <c r="IZG3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IZA3" t="inlineStr">
+      <c r="IZH3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>

--- a/INTLINE/data/924/SSE/SSE Main Board - Daily.xlsx
+++ b/INTLINE/data/924/SSE/SSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JAP3"/>
+  <dimension ref="A1:JAS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34364,15 +34364,30 @@
       </c>
       <c r="JAN1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="JAO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="JAP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="JAQ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="JAO1" s="1" t="inlineStr">
+      <c r="JAR1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="JAP1" s="1" t="inlineStr">
+      <c r="JAS1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53854,19 +53869,28 @@
         <v>303.44</v>
       </c>
       <c r="JAM2" t="n">
-        <v>302.44</v>
-      </c>
-      <c r="JAN2" t="inlineStr">
+        <v>299.69</v>
+      </c>
+      <c r="JAN2" t="n">
+        <v>301.63</v>
+      </c>
+      <c r="JAO2" t="n">
+        <v>303.12</v>
+      </c>
+      <c r="JAP2" t="n">
+        <v>307.61</v>
+      </c>
+      <c r="JAQ2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="JAO2" t="inlineStr">
+      <c r="JAR2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="JAP2" t="inlineStr">
+      <c r="JAS2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -73384,19 +73408,28 @@
         <v>3465.49</v>
       </c>
       <c r="JAM3" t="n">
-        <v>3454.14</v>
-      </c>
-      <c r="JAN3" t="inlineStr">
+        <v>3424.06</v>
+      </c>
+      <c r="JAN3" t="n">
+        <v>3479.53</v>
+      </c>
+      <c r="JAO3" t="n">
+        <v>3510.59</v>
+      </c>
+      <c r="JAP3" t="n">
+        <v>3540.73</v>
+      </c>
+      <c r="JAQ3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="JAO3" t="inlineStr">
+      <c r="JAR3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="JAP3" t="inlineStr">
+      <c r="JAS3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
